--- a/US/data/BOC/FTD/FTDE/UATPCSB_A_historical.xlsx
+++ b/US/data/BOC/FTD/FTDE/UATPCSB_A_historical.xlsx
@@ -527,10 +527,10 @@
         <v>-131985</v>
       </c>
       <c r="W2" t="n">
-        <v>-191179</v>
+        <v>-188132</v>
       </c>
       <c r="X2" t="n">
-        <v>-197162</v>
+        <v>-195945</v>
       </c>
       <c r="Y2" t="inlineStr">
         <is>
@@ -616,10 +616,10 @@
         <v>364009</v>
       </c>
       <c r="W3" t="n">
-        <v>300783</v>
+        <v>303166</v>
       </c>
       <c r="X3" t="n">
-        <v>356620</v>
+        <v>357293</v>
       </c>
       <c r="Y3" t="inlineStr">
         <is>
@@ -705,10 +705,10 @@
         <v>495994</v>
       </c>
       <c r="W4" t="n">
-        <v>491962</v>
+        <v>491298</v>
       </c>
       <c r="X4" t="n">
-        <v>553781</v>
+        <v>553239</v>
       </c>
       <c r="Y4" t="inlineStr">
         <is>
